--- a/src/main/resources/157-black-shop/black-shop-gateway_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-gateway_structure.xlsx
@@ -94,19 +94,19 @@
     <t>private</t>
   </si>
   <si>
-    <t>lambda$get$0(org.springframework.cloud.gateway.route.Route)</t>
-  </si>
-  <si>
-    <t>lambda$get$4(org.springframework.cloud.gateway.route.RouteDefinition)</t>
-  </si>
-  <si>
-    <t>lambda$get$3(org.springframework.cloud.gateway.route.RouteDefinition)</t>
+    <t>lambda$get$0(java.util.List,org.springframework.cloud.gateway.route.Route)</t>
+  </si>
+  <si>
+    <t>lambda$get$4(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition)</t>
+  </si>
+  <si>
+    <t>lambda$get$3(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition,org.springframework.cloud.gateway.handler.predicate.PredicateDefinition)</t>
   </si>
   <si>
     <t>wait(java.lang.Long)</t>
   </si>
   <si>
-    <t>lambda$get$1(org.springframework.cloud.gateway.route.RouteDefinition)</t>
+    <t>lambda$get$1(java.util.List,org.springframework.cloud.gateway.route.RouteDefinition)</t>
   </si>
   <si>
     <t>wait(java.lang.Long,java.lang.Integer)</t>
@@ -124,7 +124,7 @@
     <t>cn.blackshop.gateway.config.CorsConfig</t>
   </si>
   <si>
-    <t>discoveryClientRouteDefinitionLocator(org.springframework.cloud.gateway.discovery.DiscoveryLocatorProperties)</t>
+    <t>discoveryClientRouteDefinitionLocator(org.springframework.cloud.client.discovery.DiscoveryClient,org.springframework.cloud.gateway.discovery.DiscoveryLocatorProperties)</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.route.RouteDefinitionLocator</t>
